--- a/python/data/Production Runs/Test Tuning 20151015.xlsx
+++ b/python/data/Production Runs/Test Tuning 20151015.xlsx
@@ -90,9 +90,10 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -114,11 +115,18 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="true"/>
       <sz val="13"/>
     </font>
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="true"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -253,7 +261,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Summary Plots of Tuning Runs</a:t>
             </a:r>
           </a:p>
@@ -3132,11 +3140,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="41090893"/>
-        <c:axId val="10548314"/>
+        <c:axId val="27329176"/>
+        <c:axId val="34607947"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41090893"/>
+        <c:axId val="27329176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -3153,7 +3161,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>Tenths of Sconds</a:t>
                 </a:r>
               </a:p>
@@ -3164,7 +3172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10548314"/>
+        <c:crossAx val="34607947"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -3175,7 +3183,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10548314"/>
+        <c:axId val="34607947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="135"/>
@@ -3192,7 +3200,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>Degrees C</a:t>
                 </a:r>
               </a:p>
@@ -3212,7 +3220,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41090893"/>
+        <c:crossAx val="27329176"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -3259,7 +3267,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>SP 125 Kp 50 Ki 1 Kd 0</a:t>
             </a:r>
           </a:p>
@@ -4360,11 +4368,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="92689593"/>
-        <c:axId val="49159285"/>
+        <c:axId val="2470670"/>
+        <c:axId val="70960841"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92689593"/>
+        <c:axId val="2470670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4372,7 +4380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49159285"/>
+        <c:crossAx val="70960841"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -4383,7 +4391,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49159285"/>
+        <c:axId val="70960841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4400,7 +4408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92689593"/>
+        <c:crossAx val="2470670"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -4447,7 +4455,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>SP 125, Kp 50, Ki 2, Kd 0</a:t>
             </a:r>
           </a:p>
@@ -5668,11 +5676,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81119822"/>
-        <c:axId val="23638771"/>
+        <c:axId val="88152928"/>
+        <c:axId val="5876017"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81119822"/>
+        <c:axId val="88152928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5680,7 +5688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="23638771"/>
+        <c:crossAx val="5876017"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -5691,7 +5699,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23638771"/>
+        <c:axId val="5876017"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5708,7 +5716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81119822"/>
+        <c:crossAx val="88152928"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -5755,7 +5763,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>SP 125 Kp 50, Ki 1, Kd 50</a:t>
             </a:r>
           </a:p>
@@ -6742,11 +6750,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84465200"/>
-        <c:axId val="21530803"/>
+        <c:axId val="2373611"/>
+        <c:axId val="77558283"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84465200"/>
+        <c:axId val="2373611"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6754,7 +6762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="21530803"/>
+        <c:crossAx val="77558283"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -6765,7 +6773,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21530803"/>
+        <c:axId val="77558283"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6782,7 +6790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84465200"/>
+        <c:crossAx val="2373611"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -6829,7 +6837,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>SP 125, Kp 30, Ki 2, Kd 100</a:t>
             </a:r>
           </a:p>
@@ -6946,11 +6954,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="23827990"/>
-        <c:axId val="90916629"/>
+        <c:axId val="21563582"/>
+        <c:axId val="52562536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23827990"/>
+        <c:axId val="21563582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6958,7 +6966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90916629"/>
+        <c:crossAx val="52562536"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -6969,7 +6977,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90916629"/>
+        <c:axId val="52562536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6986,7 +6994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="23827990"/>
+        <c:crossAx val="21563582"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -7023,15 +7031,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
+      <xdr:colOff>228240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7039,8 +7047,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19800" y="1116720"/>
-        <a:ext cx="8988480" cy="4033800"/>
+        <a:off x="46800" y="1116720"/>
+        <a:ext cx="9031320" cy="4264560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7058,15 +7066,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>448560</xdr:colOff>
+      <xdr:colOff>475560</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>667080</xdr:colOff>
+      <xdr:colOff>693720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7074,8 +7082,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4956840" y="0"/>
-        <a:ext cx="6400800" cy="4572000"/>
+        <a:off x="5006880" y="0"/>
+        <a:ext cx="6429600" cy="4571640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7093,15 +7101,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>63720</xdr:colOff>
+      <xdr:colOff>90720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>775080</xdr:colOff>
+      <xdr:colOff>801720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7109,8 +7117,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5064840" y="0"/>
-        <a:ext cx="6400800" cy="4572000"/>
+        <a:off x="5117040" y="0"/>
+        <a:ext cx="6427440" cy="4571640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7128,15 +7136,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>81720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>766080</xdr:colOff>
+      <xdr:colOff>792720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7144,8 +7152,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5055840" y="0"/>
-        <a:ext cx="6400800" cy="4572000"/>
+        <a:off x="5108040" y="0"/>
+        <a:ext cx="6427440" cy="4571640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7163,15 +7171,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>102240</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>786600</xdr:colOff>
+      <xdr:colOff>813240</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7179,8 +7187,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5125320" y="0"/>
-        <a:ext cx="6400800" cy="4572000"/>
+        <a:off x="5178240" y="0"/>
+        <a:ext cx="6427440" cy="4571640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7205,19 +7213,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.95686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.67843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.8078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.25490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.72156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9882352941176"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.82745098039216"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.27450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
@@ -7276,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
@@ -7306,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -7336,7 +7344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
@@ -7366,7 +7374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
@@ -7420,20 +7428,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.25490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.8078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.49019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.58039215686275"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.67843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.01960784313726"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.82745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.27450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.82745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.51764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.6156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.05490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>12</v>
       </c>
@@ -7468,7 +7476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -7503,7 +7511,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -7538,7 +7546,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -7573,7 +7581,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
@@ -7608,7 +7616,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
@@ -7643,7 +7651,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
@@ -7678,7 +7686,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>1</v>
       </c>
@@ -7713,7 +7721,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7756,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>1</v>
       </c>
@@ -7783,7 +7791,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>1</v>
       </c>
@@ -7818,7 +7826,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>1</v>
       </c>
@@ -7853,7 +7861,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>1</v>
       </c>
@@ -7888,7 +7896,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>1</v>
       </c>
@@ -7923,7 +7931,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>1</v>
       </c>
@@ -7958,7 +7966,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>1</v>
       </c>
@@ -7993,7 +8001,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>1</v>
       </c>
@@ -8028,7 +8036,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>1</v>
       </c>
@@ -8063,7 +8071,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
         <v>1</v>
       </c>
@@ -8098,7 +8106,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
         <v>1</v>
       </c>
@@ -8133,7 +8141,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
         <v>1</v>
       </c>
@@ -8168,7 +8176,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>1</v>
       </c>
@@ -8203,7 +8211,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
         <v>1</v>
       </c>
@@ -8238,7 +8246,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
         <v>1</v>
       </c>
@@ -8273,7 +8281,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>1</v>
       </c>
@@ -8308,7 +8316,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>1</v>
       </c>
@@ -8343,7 +8351,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>1</v>
       </c>
@@ -8378,7 +8386,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
         <v>1</v>
       </c>
@@ -8413,7 +8421,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
         <v>1</v>
       </c>
@@ -8448,7 +8456,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
         <v>1</v>
       </c>
@@ -8483,7 +8491,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
         <v>1</v>
       </c>
@@ -8518,7 +8526,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
         <v>1</v>
       </c>
@@ -8553,7 +8561,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
         <v>1</v>
       </c>
@@ -8588,7 +8596,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
@@ -8623,7 +8631,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
         <v>1</v>
       </c>
@@ -8658,7 +8666,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
         <v>1</v>
       </c>
@@ -8693,7 +8701,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
         <v>1</v>
       </c>
@@ -8728,7 +8736,7 @@
         <v>950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
         <v>1</v>
       </c>
@@ -8763,7 +8771,7 @@
         <v>800</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
         <v>1</v>
       </c>
@@ -8798,7 +8806,7 @@
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
         <v>1</v>
       </c>
@@ -8833,7 +8841,7 @@
         <v>600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
         <v>1</v>
       </c>
@@ -8868,7 +8876,7 @@
         <v>500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +8911,7 @@
         <v>350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="n">
         <v>1</v>
       </c>
@@ -8938,7 +8946,7 @@
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="n">
         <v>1</v>
       </c>
@@ -8973,7 +8981,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="n">
         <v>1</v>
       </c>
@@ -9008,7 +9016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="n">
         <v>1</v>
       </c>
@@ -9043,7 +9051,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="0" t="n">
         <v>1</v>
       </c>
@@ -9078,7 +9086,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="n">
         <v>1</v>
       </c>
@@ -9113,7 +9121,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="0" t="n">
         <v>1</v>
       </c>
@@ -9148,7 +9156,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="0" t="n">
         <v>1</v>
       </c>
@@ -9183,7 +9191,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="0" t="n">
         <v>1</v>
       </c>
@@ -9218,7 +9226,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="0" t="n">
         <v>1</v>
       </c>
@@ -9253,7 +9261,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="0" t="n">
         <v>1</v>
       </c>
@@ -9288,7 +9296,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="0" t="n">
         <v>1</v>
       </c>
@@ -9323,7 +9331,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="0" t="n">
         <v>1</v>
       </c>
@@ -9358,7 +9366,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="0" t="n">
         <v>1</v>
       </c>
@@ -9393,7 +9401,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="0" t="n">
         <v>1</v>
       </c>
@@ -9428,7 +9436,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="0" t="n">
         <v>1</v>
       </c>
@@ -9463,7 +9471,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="0" t="n">
         <v>1</v>
       </c>
@@ -9498,7 +9506,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="0" t="n">
         <v>1</v>
       </c>
@@ -9533,7 +9541,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="A61" s="0" t="n">
         <v>1</v>
       </c>
@@ -9568,7 +9576,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="0" t="n">
         <v>1</v>
       </c>
@@ -9603,7 +9611,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="0" t="n">
         <v>1</v>
       </c>
@@ -9638,7 +9646,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="0" t="n">
         <v>1</v>
       </c>
@@ -9673,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="0" t="n">
         <v>1</v>
       </c>
@@ -9708,7 +9716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="A66" s="0" t="n">
         <v>1</v>
       </c>
@@ -9743,7 +9751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="n">
         <v>1</v>
       </c>
@@ -9778,7 +9786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="0" t="n">
         <v>1</v>
       </c>
@@ -9813,7 +9821,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="69">
       <c r="A69" s="0" t="n">
         <v>1</v>
       </c>
@@ -9848,7 +9856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="70">
       <c r="A70" s="0" t="n">
         <v>1</v>
       </c>
@@ -9883,7 +9891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="71">
       <c r="A71" s="0" t="n">
         <v>1</v>
       </c>
@@ -9918,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="72">
       <c r="A72" s="0" t="n">
         <v>1</v>
       </c>
@@ -9953,7 +9961,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="73">
       <c r="A73" s="0" t="n">
         <v>1</v>
       </c>
@@ -9988,7 +9996,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="74">
       <c r="A74" s="0" t="n">
         <v>1</v>
       </c>
@@ -10023,7 +10031,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="75">
       <c r="A75" s="0" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10066,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="76">
       <c r="A76" s="0" t="n">
         <v>1</v>
       </c>
@@ -10093,7 +10101,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="77">
       <c r="A77" s="0" t="n">
         <v>1</v>
       </c>
@@ -10128,7 +10136,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="78">
       <c r="A78" s="0" t="n">
         <v>1</v>
       </c>
@@ -10163,7 +10171,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="79">
       <c r="A79" s="0" t="n">
         <v>1</v>
       </c>
@@ -10198,7 +10206,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="0" t="n">
         <v>1</v>
       </c>
@@ -10233,7 +10241,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="81">
       <c r="A81" s="0" t="n">
         <v>1</v>
       </c>
@@ -10268,7 +10276,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="82">
       <c r="A82" s="0" t="n">
         <v>1</v>
       </c>
@@ -10303,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="83">
       <c r="A83" s="0" t="n">
         <v>1</v>
       </c>
@@ -10338,7 +10346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="84">
       <c r="A84" s="0" t="n">
         <v>1</v>
       </c>
@@ -10373,7 +10381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="85">
       <c r="A85" s="0" t="n">
         <v>1</v>
       </c>
@@ -10408,7 +10416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="86">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
@@ -10443,7 +10451,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="87">
       <c r="A87" s="0" t="n">
         <v>1</v>
       </c>
@@ -10478,7 +10486,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="88">
       <c r="A88" s="0" t="n">
         <v>1</v>
       </c>
@@ -10513,7 +10521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="89">
       <c r="A89" s="0" t="n">
         <v>1</v>
       </c>
@@ -10548,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="90">
       <c r="A90" s="0" t="n">
         <v>1</v>
       </c>
@@ -10583,7 +10591,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="91">
       <c r="A91" s="0" t="n">
         <v>1</v>
       </c>
@@ -10618,7 +10626,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="92">
       <c r="A92" s="0" t="n">
         <v>1</v>
       </c>
@@ -10653,7 +10661,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="93">
       <c r="A93" s="0" t="n">
         <v>1</v>
       </c>
@@ -10688,7 +10696,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="94">
       <c r="A94" s="0" t="n">
         <v>1</v>
       </c>
@@ -10723,7 +10731,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="95">
       <c r="A95" s="0" t="n">
         <v>1</v>
       </c>
@@ -10758,7 +10766,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="96">
       <c r="A96" s="0" t="n">
         <v>1</v>
       </c>
@@ -10793,7 +10801,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="97">
       <c r="A97" s="0" t="n">
         <v>1</v>
       </c>
@@ -10828,7 +10836,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="98">
       <c r="A98" s="0" t="n">
         <v>1</v>
       </c>
@@ -10863,7 +10871,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="99">
       <c r="A99" s="0" t="n">
         <v>1</v>
       </c>
@@ -10898,7 +10906,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="100">
       <c r="A100" s="0" t="n">
         <v>1</v>
       </c>
@@ -10933,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="101">
       <c r="A101" s="0" t="n">
         <v>1</v>
       </c>
@@ -10968,7 +10976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="102">
       <c r="A102" s="0" t="n">
         <v>1</v>
       </c>
@@ -11003,7 +11011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="103">
       <c r="A103" s="0" t="n">
         <v>1</v>
       </c>
@@ -11038,7 +11046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="104">
       <c r="A104" s="0" t="n">
         <v>1</v>
       </c>
@@ -11073,7 +11081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="105">
       <c r="A105" s="0" t="n">
         <v>1</v>
       </c>
@@ -11108,7 +11116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="106">
       <c r="A106" s="0" t="n">
         <v>1</v>
       </c>
@@ -11143,7 +11151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="107">
       <c r="A107" s="0" t="n">
         <v>1</v>
       </c>
@@ -11178,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="108">
       <c r="A108" s="0" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11221,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="109">
       <c r="A109" s="0" t="n">
         <v>1</v>
       </c>
@@ -11248,7 +11256,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="110">
       <c r="A110" s="0" t="n">
         <v>1</v>
       </c>
@@ -11283,7 +11291,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="111">
       <c r="A111" s="0" t="n">
         <v>1</v>
       </c>
@@ -11318,7 +11326,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="112">
       <c r="A112" s="0" t="n">
         <v>1</v>
       </c>
@@ -11353,7 +11361,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="113">
       <c r="A113" s="0" t="n">
         <v>1</v>
       </c>
@@ -11388,7 +11396,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="114">
       <c r="A114" s="0" t="n">
         <v>1</v>
       </c>
@@ -11423,7 +11431,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="115">
       <c r="A115" s="0" t="n">
         <v>1</v>
       </c>
@@ -11458,7 +11466,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="116">
       <c r="A116" s="0" t="n">
         <v>1</v>
       </c>
@@ -11493,7 +11501,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="117">
       <c r="A117" s="0" t="n">
         <v>1</v>
       </c>
@@ -11528,7 +11536,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="118">
       <c r="A118" s="0" t="n">
         <v>1</v>
       </c>
@@ -11563,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="119">
       <c r="A119" s="0" t="n">
         <v>1</v>
       </c>
@@ -11598,7 +11606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="120">
       <c r="A120" s="0" t="n">
         <v>1</v>
       </c>
@@ -11633,7 +11641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="121">
       <c r="A121" s="0" t="n">
         <v>1</v>
       </c>
@@ -11668,7 +11676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="122">
       <c r="A122" s="0" t="n">
         <v>1</v>
       </c>
@@ -11703,7 +11711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="123">
       <c r="A123" s="0" t="n">
         <v>1</v>
       </c>
@@ -11738,7 +11746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="124">
       <c r="A124" s="0" t="n">
         <v>1</v>
       </c>
@@ -11773,7 +11781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="125">
       <c r="A125" s="0" t="n">
         <v>1</v>
       </c>
@@ -11808,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="126">
       <c r="A126" s="0" t="n">
         <v>1</v>
       </c>
@@ -11843,7 +11851,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="127">
       <c r="A127" s="0" t="n">
         <v>1</v>
       </c>
@@ -11878,7 +11886,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="128">
       <c r="A128" s="0" t="n">
         <v>1</v>
       </c>
@@ -11913,7 +11921,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="129">
       <c r="A129" s="0" t="n">
         <v>1</v>
       </c>
@@ -11948,7 +11956,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="130">
       <c r="A130" s="0" t="n">
         <v>1</v>
       </c>
@@ -11983,7 +11991,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="131">
       <c r="A131" s="0" t="n">
         <v>1</v>
       </c>
@@ -12018,7 +12026,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="132">
       <c r="A132" s="0" t="n">
         <v>1</v>
       </c>
@@ -12053,7 +12061,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="133">
       <c r="A133" s="0" t="n">
         <v>1</v>
       </c>
@@ -12088,7 +12096,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="134">
       <c r="A134" s="0" t="n">
         <v>1</v>
       </c>
@@ -12123,7 +12131,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="135">
       <c r="A135" s="0" t="n">
         <v>1</v>
       </c>
@@ -12158,7 +12166,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="136">
       <c r="A136" s="0" t="n">
         <v>1</v>
       </c>
@@ -12193,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="137">
       <c r="A137" s="0" t="n">
         <v>1</v>
       </c>
@@ -12228,7 +12236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="138">
       <c r="A138" s="0" t="n">
         <v>1</v>
       </c>
@@ -12263,7 +12271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="139">
       <c r="A139" s="0" t="n">
         <v>1</v>
       </c>
@@ -12298,7 +12306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="140">
       <c r="A140" s="0" t="n">
         <v>1</v>
       </c>
@@ -12333,7 +12341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="141">
       <c r="A141" s="0" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="142">
       <c r="A142" s="0" t="n">
         <v>1</v>
       </c>
@@ -12403,7 +12411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="143">
       <c r="A143" s="0" t="n">
         <v>1</v>
       </c>
@@ -12438,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="144">
       <c r="A144" s="0" t="n">
         <v>1</v>
       </c>
@@ -12473,7 +12481,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="145">
       <c r="A145" s="0" t="n">
         <v>1</v>
       </c>
@@ -12508,7 +12516,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="146">
       <c r="A146" s="0" t="n">
         <v>1</v>
       </c>
@@ -12543,7 +12551,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="147">
       <c r="A147" s="0" t="n">
         <v>1</v>
       </c>
@@ -12578,7 +12586,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="148">
       <c r="A148" s="0" t="n">
         <v>1</v>
       </c>
@@ -12613,7 +12621,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="149">
       <c r="A149" s="0" t="n">
         <v>1</v>
       </c>
@@ -12648,7 +12656,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="150">
       <c r="A150" s="0" t="n">
         <v>1</v>
       </c>
@@ -12683,7 +12691,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="151">
       <c r="A151" s="0" t="n">
         <v>1</v>
       </c>
@@ -12718,7 +12726,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="152">
       <c r="A152" s="0" t="n">
         <v>1</v>
       </c>
@@ -12753,7 +12761,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="153">
       <c r="A153" s="0" t="n">
         <v>1</v>
       </c>
@@ -12788,7 +12796,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="154">
       <c r="A154" s="0" t="n">
         <v>1</v>
       </c>
@@ -12823,7 +12831,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="155">
       <c r="A155" s="0" t="n">
         <v>1</v>
       </c>
@@ -12858,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="156">
       <c r="A156" s="0" t="n">
         <v>1</v>
       </c>
@@ -12893,7 +12901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="157">
       <c r="A157" s="0" t="n">
         <v>1</v>
       </c>
@@ -12928,7 +12936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="158">
       <c r="A158" s="0" t="n">
         <v>1</v>
       </c>
@@ -12963,7 +12971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="159">
       <c r="A159" s="0" t="n">
         <v>1</v>
       </c>
@@ -12998,7 +13006,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="160">
       <c r="A160" s="0" t="n">
         <v>1</v>
       </c>
@@ -13033,7 +13041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="161">
       <c r="A161" s="0" t="n">
         <v>1</v>
       </c>
@@ -13068,7 +13076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="162">
       <c r="A162" s="0" t="n">
         <v>1</v>
       </c>
@@ -13103,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="163">
       <c r="A163" s="0" t="n">
         <v>1</v>
       </c>
@@ -13138,7 +13146,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="164">
       <c r="A164" s="0" t="n">
         <v>1</v>
       </c>
@@ -13173,7 +13181,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="165">
       <c r="A165" s="0" t="n">
         <v>1</v>
       </c>
@@ -13208,7 +13216,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="166">
       <c r="A166" s="0" t="n">
         <v>1</v>
       </c>
@@ -13243,7 +13251,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="167">
       <c r="A167" s="0" t="n">
         <v>1</v>
       </c>
@@ -13278,7 +13286,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="168">
       <c r="A168" s="0" t="n">
         <v>1</v>
       </c>
@@ -13313,7 +13321,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="169">
       <c r="A169" s="0" t="n">
         <v>1</v>
       </c>
@@ -13348,7 +13356,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="170">
       <c r="A170" s="0" t="n">
         <v>1</v>
       </c>
@@ -13386,7 +13394,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -13407,20 +13415,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.25490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.8078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.49019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.58039215686275"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.67843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.01960784313726"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.82745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.27450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.82745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.51764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.6156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.05490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>12</v>
       </c>
@@ -13455,7 +13463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13498,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -13525,7 +13533,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -13560,7 +13568,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
@@ -13595,7 +13603,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
@@ -13630,7 +13638,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
@@ -13665,7 +13673,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>1</v>
       </c>
@@ -13700,7 +13708,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>1</v>
       </c>
@@ -13735,7 +13743,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>1</v>
       </c>
@@ -13770,7 +13778,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>1</v>
       </c>
@@ -13805,7 +13813,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>1</v>
       </c>
@@ -13840,7 +13848,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>1</v>
       </c>
@@ -13875,7 +13883,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>1</v>
       </c>
@@ -13910,7 +13918,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>1</v>
       </c>
@@ -13945,7 +13953,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>1</v>
       </c>
@@ -13980,7 +13988,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>1</v>
       </c>
@@ -14015,7 +14023,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>1</v>
       </c>
@@ -14050,7 +14058,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
         <v>1</v>
       </c>
@@ -14085,7 +14093,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
         <v>1</v>
       </c>
@@ -14120,7 +14128,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
         <v>1</v>
       </c>
@@ -14155,7 +14163,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>1</v>
       </c>
@@ -14190,7 +14198,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
         <v>1</v>
       </c>
@@ -14225,7 +14233,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
         <v>1</v>
       </c>
@@ -14260,7 +14268,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>1</v>
       </c>
@@ -14295,7 +14303,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>1</v>
       </c>
@@ -14330,7 +14338,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>1</v>
       </c>
@@ -14365,7 +14373,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
         <v>1</v>
       </c>
@@ -14400,7 +14408,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
         <v>1</v>
       </c>
@@ -14435,7 +14443,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
         <v>1</v>
       </c>
@@ -14470,7 +14478,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
         <v>1</v>
       </c>
@@ -14505,7 +14513,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
         <v>1</v>
       </c>
@@ -14540,7 +14548,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
         <v>1</v>
       </c>
@@ -14575,7 +14583,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
@@ -14610,7 +14618,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +14653,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
         <v>1</v>
       </c>
@@ -14680,7 +14688,7 @@
         <v>850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
         <v>1</v>
       </c>
@@ -14715,7 +14723,7 @@
         <v>750</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
         <v>1</v>
       </c>
@@ -14750,7 +14758,7 @@
         <v>650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
         <v>1</v>
       </c>
@@ -14785,7 +14793,7 @@
         <v>550</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
         <v>1</v>
       </c>
@@ -14820,7 +14828,7 @@
         <v>450</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
         <v>1</v>
       </c>
@@ -14855,7 +14863,7 @@
         <v>300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="n">
         <v>1</v>
       </c>
@@ -14890,7 +14898,7 @@
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="n">
         <v>1</v>
       </c>
@@ -14925,7 +14933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="n">
         <v>1</v>
       </c>
@@ -14960,7 +14968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="n">
         <v>1</v>
       </c>
@@ -14995,7 +15003,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="n">
         <v>1</v>
       </c>
@@ -15030,7 +15038,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="0" t="n">
         <v>1</v>
       </c>
@@ -15065,7 +15073,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="n">
         <v>1</v>
       </c>
@@ -15100,7 +15108,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="0" t="n">
         <v>1</v>
       </c>
@@ -15135,7 +15143,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="0" t="n">
         <v>1</v>
       </c>
@@ -15170,7 +15178,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="0" t="n">
         <v>1</v>
       </c>
@@ -15205,7 +15213,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="0" t="n">
         <v>1</v>
       </c>
@@ -15240,7 +15248,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="0" t="n">
         <v>1</v>
       </c>
@@ -15275,7 +15283,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="0" t="n">
         <v>1</v>
       </c>
@@ -15310,7 +15318,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="0" t="n">
         <v>1</v>
       </c>
@@ -15345,7 +15353,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="0" t="n">
         <v>1</v>
       </c>
@@ -15380,7 +15388,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="0" t="n">
         <v>1</v>
       </c>
@@ -15415,7 +15423,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="0" t="n">
         <v>1</v>
       </c>
@@ -15450,7 +15458,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="0" t="n">
         <v>1</v>
       </c>
@@ -15485,7 +15493,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="0" t="n">
         <v>1</v>
       </c>
@@ -15520,7 +15528,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="A61" s="0" t="n">
         <v>1</v>
       </c>
@@ -15555,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="0" t="n">
         <v>1</v>
       </c>
@@ -15590,7 +15598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="0" t="n">
         <v>1</v>
       </c>
@@ -15625,7 +15633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="0" t="n">
         <v>1</v>
       </c>
@@ -15660,7 +15668,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="0" t="n">
         <v>1</v>
       </c>
@@ -15695,7 +15703,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="A66" s="0" t="n">
         <v>1</v>
       </c>
@@ -15730,7 +15738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="n">
         <v>1</v>
       </c>
@@ -15765,7 +15773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="0" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="69">
       <c r="A69" s="0" t="n">
         <v>1</v>
       </c>
@@ -15835,7 +15843,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="70">
       <c r="A70" s="0" t="n">
         <v>1</v>
       </c>
@@ -15870,7 +15878,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="71">
       <c r="A71" s="0" t="n">
         <v>1</v>
       </c>
@@ -15905,7 +15913,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="72">
       <c r="A72" s="0" t="n">
         <v>1</v>
       </c>
@@ -15940,7 +15948,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="73">
       <c r="A73" s="0" t="n">
         <v>1</v>
       </c>
@@ -15975,7 +15983,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="74">
       <c r="A74" s="0" t="n">
         <v>1</v>
       </c>
@@ -16010,7 +16018,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="75">
       <c r="A75" s="0" t="n">
         <v>1</v>
       </c>
@@ -16045,7 +16053,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="76">
       <c r="A76" s="0" t="n">
         <v>1</v>
       </c>
@@ -16080,7 +16088,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="77">
       <c r="A77" s="0" t="n">
         <v>1</v>
       </c>
@@ -16115,7 +16123,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="78">
       <c r="A78" s="0" t="n">
         <v>1</v>
       </c>
@@ -16150,7 +16158,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="79">
       <c r="A79" s="0" t="n">
         <v>1</v>
       </c>
@@ -16185,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="0" t="n">
         <v>1</v>
       </c>
@@ -16220,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="81">
       <c r="A81" s="0" t="n">
         <v>1</v>
       </c>
@@ -16255,7 +16263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="82">
       <c r="A82" s="0" t="n">
         <v>1</v>
       </c>
@@ -16290,7 +16298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="83">
       <c r="A83" s="0" t="n">
         <v>1</v>
       </c>
@@ -16325,7 +16333,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="84">
       <c r="A84" s="0" t="n">
         <v>1</v>
       </c>
@@ -16360,7 +16368,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="85">
       <c r="A85" s="0" t="n">
         <v>1</v>
       </c>
@@ -16395,7 +16403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="86">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
@@ -16430,7 +16438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="87">
       <c r="A87" s="0" t="n">
         <v>1</v>
       </c>
@@ -16465,7 +16473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="88">
       <c r="A88" s="0" t="n">
         <v>1</v>
       </c>
@@ -16500,7 +16508,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="89">
       <c r="A89" s="0" t="n">
         <v>1</v>
       </c>
@@ -16535,7 +16543,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="90">
       <c r="A90" s="0" t="n">
         <v>1</v>
       </c>
@@ -16570,7 +16578,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="91">
       <c r="A91" s="0" t="n">
         <v>1</v>
       </c>
@@ -16605,7 +16613,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="92">
       <c r="A92" s="0" t="n">
         <v>1</v>
       </c>
@@ -16640,7 +16648,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="93">
       <c r="A93" s="0" t="n">
         <v>1</v>
       </c>
@@ -16675,7 +16683,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="94">
       <c r="A94" s="0" t="n">
         <v>1</v>
       </c>
@@ -16710,7 +16718,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="95">
       <c r="A95" s="0" t="n">
         <v>1</v>
       </c>
@@ -16745,7 +16753,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="96">
       <c r="A96" s="0" t="n">
         <v>1</v>
       </c>
@@ -16780,7 +16788,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="97">
       <c r="A97" s="0" t="n">
         <v>1</v>
       </c>
@@ -16815,7 +16823,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="98">
       <c r="A98" s="0" t="n">
         <v>1</v>
       </c>
@@ -16850,7 +16858,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="99">
       <c r="A99" s="0" t="n">
         <v>1</v>
       </c>
@@ -16885,7 +16893,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="100">
       <c r="A100" s="0" t="n">
         <v>1</v>
       </c>
@@ -16920,7 +16928,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="101">
       <c r="A101" s="0" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="102">
       <c r="A102" s="0" t="n">
         <v>1</v>
       </c>
@@ -16990,7 +16998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="103">
       <c r="A103" s="0" t="n">
         <v>1</v>
       </c>
@@ -17025,7 +17033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="104">
       <c r="A104" s="0" t="n">
         <v>1</v>
       </c>
@@ -17060,7 +17068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="105">
       <c r="A105" s="0" t="n">
         <v>1</v>
       </c>
@@ -17095,7 +17103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="106">
       <c r="A106" s="0" t="n">
         <v>1</v>
       </c>
@@ -17130,7 +17138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="107">
       <c r="A107" s="0" t="n">
         <v>1</v>
       </c>
@@ -17165,7 +17173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="108">
       <c r="A108" s="0" t="n">
         <v>1</v>
       </c>
@@ -17200,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="109">
       <c r="A109" s="0" t="n">
         <v>1</v>
       </c>
@@ -17235,7 +17243,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="110">
       <c r="A110" s="0" t="n">
         <v>1</v>
       </c>
@@ -17270,7 +17278,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="111">
       <c r="A111" s="0" t="n">
         <v>1</v>
       </c>
@@ -17305,7 +17313,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="112">
       <c r="A112" s="0" t="n">
         <v>1</v>
       </c>
@@ -17340,7 +17348,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="113">
       <c r="A113" s="0" t="n">
         <v>1</v>
       </c>
@@ -17375,7 +17383,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="114">
       <c r="A114" s="0" t="n">
         <v>1</v>
       </c>
@@ -17410,7 +17418,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="115">
       <c r="A115" s="0" t="n">
         <v>1</v>
       </c>
@@ -17445,7 +17453,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="116">
       <c r="A116" s="0" t="n">
         <v>1</v>
       </c>
@@ -17480,7 +17488,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="117">
       <c r="A117" s="0" t="n">
         <v>1</v>
       </c>
@@ -17515,7 +17523,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="118">
       <c r="A118" s="0" t="n">
         <v>1</v>
       </c>
@@ -17550,7 +17558,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="119">
       <c r="A119" s="0" t="n">
         <v>1</v>
       </c>
@@ -17585,7 +17593,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="120">
       <c r="A120" s="0" t="n">
         <v>1</v>
       </c>
@@ -17620,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="121">
       <c r="A121" s="0" t="n">
         <v>1</v>
       </c>
@@ -17655,7 +17663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="122">
       <c r="A122" s="0" t="n">
         <v>1</v>
       </c>
@@ -17690,7 +17698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="123">
       <c r="A123" s="0" t="n">
         <v>1</v>
       </c>
@@ -17725,7 +17733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="124">
       <c r="A124" s="0" t="n">
         <v>1</v>
       </c>
@@ -17760,7 +17768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="125">
       <c r="A125" s="0" t="n">
         <v>1</v>
       </c>
@@ -17795,7 +17803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="126">
       <c r="A126" s="0" t="n">
         <v>1</v>
       </c>
@@ -17830,7 +17838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="127">
       <c r="A127" s="0" t="n">
         <v>1</v>
       </c>
@@ -17865,7 +17873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="128">
       <c r="A128" s="0" t="n">
         <v>1</v>
       </c>
@@ -17900,7 +17908,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="129">
       <c r="A129" s="0" t="n">
         <v>1</v>
       </c>
@@ -17935,7 +17943,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="130">
       <c r="A130" s="0" t="n">
         <v>1</v>
       </c>
@@ -17970,7 +17978,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="131">
       <c r="A131" s="0" t="n">
         <v>1</v>
       </c>
@@ -18005,7 +18013,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="132">
       <c r="A132" s="0" t="n">
         <v>1</v>
       </c>
@@ -18040,7 +18048,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="133">
       <c r="A133" s="0" t="n">
         <v>1</v>
       </c>
@@ -18075,7 +18083,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="134">
       <c r="A134" s="0" t="n">
         <v>1</v>
       </c>
@@ -18110,7 +18118,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="135">
       <c r="A135" s="0" t="n">
         <v>1</v>
       </c>
@@ -18145,7 +18153,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="136">
       <c r="A136" s="0" t="n">
         <v>1</v>
       </c>
@@ -18180,7 +18188,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="137">
       <c r="A137" s="0" t="n">
         <v>1</v>
       </c>
@@ -18215,7 +18223,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="138">
       <c r="A138" s="0" t="n">
         <v>1</v>
       </c>
@@ -18250,7 +18258,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="139">
       <c r="A139" s="0" t="n">
         <v>1</v>
       </c>
@@ -18285,7 +18293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="140">
       <c r="A140" s="0" t="n">
         <v>1</v>
       </c>
@@ -18320,7 +18328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="141">
       <c r="A141" s="0" t="n">
         <v>1</v>
       </c>
@@ -18355,7 +18363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="142">
       <c r="A142" s="0" t="n">
         <v>1</v>
       </c>
@@ -18390,7 +18398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="143">
       <c r="A143" s="0" t="n">
         <v>1</v>
       </c>
@@ -18425,7 +18433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="144">
       <c r="A144" s="0" t="n">
         <v>1</v>
       </c>
@@ -18460,7 +18468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="145">
       <c r="A145" s="0" t="n">
         <v>1</v>
       </c>
@@ -18495,7 +18503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="146">
       <c r="A146" s="0" t="n">
         <v>1</v>
       </c>
@@ -18530,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="147">
       <c r="A147" s="0" t="n">
         <v>1</v>
       </c>
@@ -18565,7 +18573,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="148">
       <c r="A148" s="0" t="n">
         <v>1</v>
       </c>
@@ -18600,7 +18608,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="149">
       <c r="A149" s="0" t="n">
         <v>1</v>
       </c>
@@ -18635,7 +18643,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="150">
       <c r="A150" s="0" t="n">
         <v>1</v>
       </c>
@@ -18670,7 +18678,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="151">
       <c r="A151" s="0" t="n">
         <v>1</v>
       </c>
@@ -18705,7 +18713,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="152">
       <c r="A152" s="0" t="n">
         <v>1</v>
       </c>
@@ -18740,7 +18748,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="153">
       <c r="A153" s="0" t="n">
         <v>1</v>
       </c>
@@ -18775,7 +18783,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="154">
       <c r="A154" s="0" t="n">
         <v>1</v>
       </c>
@@ -18810,7 +18818,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="155">
       <c r="A155" s="0" t="n">
         <v>1</v>
       </c>
@@ -18845,7 +18853,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="156">
       <c r="A156" s="0" t="n">
         <v>1</v>
       </c>
@@ -18880,7 +18888,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="157">
       <c r="A157" s="0" t="n">
         <v>1</v>
       </c>
@@ -18915,7 +18923,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="158">
       <c r="A158" s="0" t="n">
         <v>1</v>
       </c>
@@ -18950,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="159">
       <c r="A159" s="0" t="n">
         <v>1</v>
       </c>
@@ -18985,7 +18993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="160">
       <c r="A160" s="0" t="n">
         <v>1</v>
       </c>
@@ -19020,7 +19028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="161">
       <c r="A161" s="0" t="n">
         <v>1</v>
       </c>
@@ -19055,7 +19063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="162">
       <c r="A162" s="0" t="n">
         <v>1</v>
       </c>
@@ -19090,7 +19098,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="163">
       <c r="A163" s="0" t="n">
         <v>1</v>
       </c>
@@ -19125,7 +19133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="164">
       <c r="A164" s="0" t="n">
         <v>1</v>
       </c>
@@ -19160,7 +19168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="165">
       <c r="A165" s="0" t="n">
         <v>1</v>
       </c>
@@ -19195,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="166">
       <c r="A166" s="0" t="n">
         <v>1</v>
       </c>
@@ -19230,7 +19238,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="167">
       <c r="A167" s="0" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +19273,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="168">
       <c r="A168" s="0" t="n">
         <v>1</v>
       </c>
@@ -19300,7 +19308,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="169">
       <c r="A169" s="0" t="n">
         <v>1</v>
       </c>
@@ -19335,7 +19343,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="170">
       <c r="A170" s="0" t="n">
         <v>1</v>
       </c>
@@ -19370,7 +19378,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="171">
       <c r="A171" s="0" t="n">
         <v>1</v>
       </c>
@@ -19405,7 +19413,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="172">
       <c r="A172" s="0" t="n">
         <v>1</v>
       </c>
@@ -19440,7 +19448,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="173">
       <c r="A173" s="0" t="n">
         <v>1</v>
       </c>
@@ -19475,7 +19483,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="174">
       <c r="A174" s="0" t="n">
         <v>1</v>
       </c>
@@ -19510,7 +19518,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="175">
       <c r="A175" s="0" t="n">
         <v>1</v>
       </c>
@@ -19545,7 +19553,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="176">
       <c r="A176" s="0" t="n">
         <v>1</v>
       </c>
@@ -19580,7 +19588,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="177">
       <c r="A177" s="0" t="n">
         <v>1</v>
       </c>
@@ -19615,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="178">
       <c r="A178" s="0" t="n">
         <v>1</v>
       </c>
@@ -19650,7 +19658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="179">
       <c r="A179" s="0" t="n">
         <v>1</v>
       </c>
@@ -19685,7 +19693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="180">
       <c r="A180" s="0" t="n">
         <v>1</v>
       </c>
@@ -19720,7 +19728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="181">
       <c r="A181" s="0" t="n">
         <v>1</v>
       </c>
@@ -19755,7 +19763,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="182">
       <c r="A182" s="0" t="n">
         <v>1</v>
       </c>
@@ -19790,7 +19798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="183">
       <c r="A183" s="0" t="n">
         <v>1</v>
       </c>
@@ -19825,7 +19833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="184">
       <c r="A184" s="0" t="n">
         <v>1</v>
       </c>
@@ -19860,7 +19868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="185">
       <c r="A185" s="0" t="n">
         <v>1</v>
       </c>
@@ -19895,7 +19903,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="186">
       <c r="A186" s="0" t="n">
         <v>1</v>
       </c>
@@ -19930,7 +19938,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="187">
       <c r="A187" s="0" t="n">
         <v>1</v>
       </c>
@@ -19965,7 +19973,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="188">
       <c r="A188" s="0" t="n">
         <v>1</v>
       </c>
@@ -20000,7 +20008,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="189">
       <c r="A189" s="0" t="n">
         <v>1</v>
       </c>
@@ -20035,7 +20043,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="190">
       <c r="A190" s="0" t="n">
         <v>1</v>
       </c>
@@ -20073,7 +20081,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -20094,20 +20102,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.25490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.8078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.49019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.58039215686275"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.67843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.01960784313726"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.82745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.27450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.82745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.51764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.6156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.05490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>12</v>
       </c>
@@ -20142,7 +20150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -20177,7 +20185,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -20212,7 +20220,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -20247,7 +20255,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
@@ -20282,7 +20290,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
@@ -20317,7 +20325,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
@@ -20352,7 +20360,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +20395,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>1</v>
       </c>
@@ -20422,7 +20430,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>1</v>
       </c>
@@ -20457,7 +20465,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>1</v>
       </c>
@@ -20492,7 +20500,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>1</v>
       </c>
@@ -20527,7 +20535,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>1</v>
       </c>
@@ -20562,7 +20570,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>1</v>
       </c>
@@ -20597,7 +20605,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>1</v>
       </c>
@@ -20632,7 +20640,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>1</v>
       </c>
@@ -20667,7 +20675,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>1</v>
       </c>
@@ -20702,7 +20710,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>1</v>
       </c>
@@ -20737,7 +20745,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
         <v>1</v>
       </c>
@@ -20772,7 +20780,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
         <v>1</v>
       </c>
@@ -20807,7 +20815,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
         <v>1</v>
       </c>
@@ -20842,7 +20850,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>1</v>
       </c>
@@ -20877,7 +20885,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
         <v>1</v>
       </c>
@@ -20912,7 +20920,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
         <v>1</v>
       </c>
@@ -20947,7 +20955,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>1</v>
       </c>
@@ -20982,7 +20990,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>1</v>
       </c>
@@ -21017,7 +21025,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>1</v>
       </c>
@@ -21052,7 +21060,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
         <v>1</v>
       </c>
@@ -21087,7 +21095,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
         <v>1</v>
       </c>
@@ -21122,7 +21130,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
         <v>1</v>
       </c>
@@ -21157,7 +21165,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
         <v>1</v>
       </c>
@@ -21192,7 +21200,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
         <v>1</v>
       </c>
@@ -21227,7 +21235,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
         <v>1</v>
       </c>
@@ -21262,7 +21270,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
@@ -21297,7 +21305,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
         <v>1</v>
       </c>
@@ -21332,7 +21340,7 @@
         <v>750</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
         <v>1</v>
       </c>
@@ -21367,7 +21375,7 @@
         <v>650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
         <v>1</v>
       </c>
@@ -21402,7 +21410,7 @@
         <v>500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
         <v>1</v>
       </c>
@@ -21437,7 +21445,7 @@
         <v>450</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
         <v>1</v>
       </c>
@@ -21472,7 +21480,7 @@
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
         <v>1</v>
       </c>
@@ -21507,7 +21515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
         <v>1</v>
       </c>
@@ -21542,7 +21550,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="n">
         <v>1</v>
       </c>
@@ -21577,7 +21585,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="n">
         <v>1</v>
       </c>
@@ -21612,7 +21620,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="n">
         <v>1</v>
       </c>
@@ -21647,7 +21655,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="n">
         <v>1</v>
       </c>
@@ -21682,7 +21690,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="n">
         <v>1</v>
       </c>
@@ -21717,7 +21725,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="0" t="n">
         <v>1</v>
       </c>
@@ -21752,7 +21760,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="n">
         <v>1</v>
       </c>
@@ -21787,7 +21795,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="0" t="n">
         <v>1</v>
       </c>
@@ -21822,7 +21830,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="0" t="n">
         <v>1</v>
       </c>
@@ -21857,7 +21865,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="0" t="n">
         <v>1</v>
       </c>
@@ -21892,7 +21900,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="0" t="n">
         <v>1</v>
       </c>
@@ -21927,7 +21935,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="0" t="n">
         <v>1</v>
       </c>
@@ -21962,7 +21970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="0" t="n">
         <v>1</v>
       </c>
@@ -21997,7 +22005,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="0" t="n">
         <v>1</v>
       </c>
@@ -22032,7 +22040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="0" t="n">
         <v>1</v>
       </c>
@@ -22067,7 +22075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="0" t="n">
         <v>1</v>
       </c>
@@ -22102,7 +22110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="0" t="n">
         <v>1</v>
       </c>
@@ -22137,7 +22145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="0" t="n">
         <v>1</v>
       </c>
@@ -22172,7 +22180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="0" t="n">
         <v>1</v>
       </c>
@@ -22207,7 +22215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="A61" s="0" t="n">
         <v>1</v>
       </c>
@@ -22242,7 +22250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="0" t="n">
         <v>1</v>
       </c>
@@ -22277,7 +22285,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="0" t="n">
         <v>1</v>
       </c>
@@ -22312,7 +22320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="0" t="n">
         <v>1</v>
       </c>
@@ -22347,7 +22355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="0" t="n">
         <v>1</v>
       </c>
@@ -22382,7 +22390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="A66" s="0" t="n">
         <v>1</v>
       </c>
@@ -22417,7 +22425,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="n">
         <v>1</v>
       </c>
@@ -22452,7 +22460,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="0" t="n">
         <v>1</v>
       </c>
@@ -22487,7 +22495,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="69">
       <c r="A69" s="0" t="n">
         <v>1</v>
       </c>
@@ -22522,7 +22530,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="70">
       <c r="A70" s="0" t="n">
         <v>1</v>
       </c>
@@ -22557,7 +22565,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="71">
       <c r="A71" s="0" t="n">
         <v>1</v>
       </c>
@@ -22592,7 +22600,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="72">
       <c r="A72" s="0" t="n">
         <v>1</v>
       </c>
@@ -22627,7 +22635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="73">
       <c r="A73" s="0" t="n">
         <v>1</v>
       </c>
@@ -22662,7 +22670,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="74">
       <c r="A74" s="0" t="n">
         <v>1</v>
       </c>
@@ -22697,7 +22705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="75">
       <c r="A75" s="0" t="n">
         <v>1</v>
       </c>
@@ -22732,7 +22740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="76">
       <c r="A76" s="0" t="n">
         <v>1</v>
       </c>
@@ -22767,7 +22775,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="77">
       <c r="A77" s="0" t="n">
         <v>1</v>
       </c>
@@ -22802,7 +22810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="78">
       <c r="A78" s="0" t="n">
         <v>1</v>
       </c>
@@ -22837,7 +22845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="79">
       <c r="A79" s="0" t="n">
         <v>1</v>
       </c>
@@ -22872,7 +22880,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="0" t="n">
         <v>1</v>
       </c>
@@ -22907,7 +22915,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="81">
       <c r="A81" s="0" t="n">
         <v>1</v>
       </c>
@@ -22942,7 +22950,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="82">
       <c r="A82" s="0" t="n">
         <v>1</v>
       </c>
@@ -22977,7 +22985,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="83">
       <c r="A83" s="0" t="n">
         <v>1</v>
       </c>
@@ -23012,7 +23020,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="84">
       <c r="A84" s="0" t="n">
         <v>1</v>
       </c>
@@ -23047,7 +23055,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="85">
       <c r="A85" s="0" t="n">
         <v>1</v>
       </c>
@@ -23082,7 +23090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="86">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
@@ -23117,7 +23125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="87">
       <c r="A87" s="0" t="n">
         <v>1</v>
       </c>
@@ -23152,7 +23160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="88">
       <c r="A88" s="0" t="n">
         <v>1</v>
       </c>
@@ -23187,7 +23195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="89">
       <c r="A89" s="0" t="n">
         <v>1</v>
       </c>
@@ -23222,7 +23230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="90">
       <c r="A90" s="0" t="n">
         <v>1</v>
       </c>
@@ -23257,7 +23265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="91">
       <c r="A91" s="0" t="n">
         <v>1</v>
       </c>
@@ -23292,7 +23300,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="92">
       <c r="A92" s="0" t="n">
         <v>1</v>
       </c>
@@ -23327,7 +23335,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="93">
       <c r="A93" s="0" t="n">
         <v>1</v>
       </c>
@@ -23362,7 +23370,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="94">
       <c r="A94" s="0" t="n">
         <v>1</v>
       </c>
@@ -23397,7 +23405,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="95">
       <c r="A95" s="0" t="n">
         <v>1</v>
       </c>
@@ -23432,7 +23440,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="96">
       <c r="A96" s="0" t="n">
         <v>1</v>
       </c>
@@ -23467,7 +23475,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="97">
       <c r="A97" s="0" t="n">
         <v>1</v>
       </c>
@@ -23502,7 +23510,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="98">
       <c r="A98" s="0" t="n">
         <v>1</v>
       </c>
@@ -23537,7 +23545,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="99">
       <c r="A99" s="0" t="n">
         <v>1</v>
       </c>
@@ -23572,7 +23580,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="100">
       <c r="A100" s="0" t="n">
         <v>1</v>
       </c>
@@ -23607,7 +23615,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="101">
       <c r="A101" s="0" t="n">
         <v>1</v>
       </c>
@@ -23642,7 +23650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="102">
       <c r="A102" s="0" t="n">
         <v>1</v>
       </c>
@@ -23677,7 +23685,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="103">
       <c r="A103" s="0" t="n">
         <v>1</v>
       </c>
@@ -23712,7 +23720,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="104">
       <c r="A104" s="0" t="n">
         <v>1</v>
       </c>
@@ -23747,7 +23755,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="105">
       <c r="A105" s="0" t="n">
         <v>1</v>
       </c>
@@ -23782,7 +23790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="106">
       <c r="A106" s="0" t="n">
         <v>1</v>
       </c>
@@ -23817,7 +23825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="107">
       <c r="A107" s="0" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +23860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="108">
       <c r="A108" s="0" t="n">
         <v>1</v>
       </c>
@@ -23887,7 +23895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="109">
       <c r="A109" s="0" t="n">
         <v>1</v>
       </c>
@@ -23922,7 +23930,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="110">
       <c r="A110" s="0" t="n">
         <v>1</v>
       </c>
@@ -23957,7 +23965,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="111">
       <c r="A111" s="0" t="n">
         <v>1</v>
       </c>
@@ -23992,7 +24000,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="112">
       <c r="A112" s="0" t="n">
         <v>1</v>
       </c>
@@ -24027,7 +24035,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="113">
       <c r="A113" s="0" t="n">
         <v>1</v>
       </c>
@@ -24062,7 +24070,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="114">
       <c r="A114" s="0" t="n">
         <v>1</v>
       </c>
@@ -24097,7 +24105,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="115">
       <c r="A115" s="0" t="n">
         <v>1</v>
       </c>
@@ -24132,7 +24140,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="116">
       <c r="A116" s="0" t="n">
         <v>1</v>
       </c>
@@ -24167,7 +24175,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="117">
       <c r="A117" s="0" t="n">
         <v>1</v>
       </c>
@@ -24202,7 +24210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="118">
       <c r="A118" s="0" t="n">
         <v>1</v>
       </c>
@@ -24237,7 +24245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="119">
       <c r="A119" s="0" t="n">
         <v>1</v>
       </c>
@@ -24272,7 +24280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="120">
       <c r="A120" s="0" t="n">
         <v>1</v>
       </c>
@@ -24307,7 +24315,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="121">
       <c r="A121" s="0" t="n">
         <v>1</v>
       </c>
@@ -24342,7 +24350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="122">
       <c r="A122" s="0" t="n">
         <v>1</v>
       </c>
@@ -24377,7 +24385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="123">
       <c r="A123" s="0" t="n">
         <v>1</v>
       </c>
@@ -24412,7 +24420,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="124">
       <c r="A124" s="0" t="n">
         <v>1</v>
       </c>
@@ -24447,7 +24455,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="125">
       <c r="A125" s="0" t="n">
         <v>1</v>
       </c>
@@ -24482,7 +24490,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="126">
       <c r="A126" s="0" t="n">
         <v>1</v>
       </c>
@@ -24517,7 +24525,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="127">
       <c r="A127" s="0" t="n">
         <v>1</v>
       </c>
@@ -24552,7 +24560,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="128">
       <c r="A128" s="0" t="n">
         <v>1</v>
       </c>
@@ -24587,7 +24595,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="129">
       <c r="A129" s="0" t="n">
         <v>1</v>
       </c>
@@ -24622,7 +24630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="130">
       <c r="A130" s="0" t="n">
         <v>1</v>
       </c>
@@ -24657,7 +24665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="131">
       <c r="A131" s="0" t="n">
         <v>1</v>
       </c>
@@ -24692,7 +24700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="132">
       <c r="A132" s="0" t="n">
         <v>1</v>
       </c>
@@ -24727,7 +24735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="133">
       <c r="A133" s="0" t="n">
         <v>1</v>
       </c>
@@ -24762,7 +24770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="134">
       <c r="A134" s="0" t="n">
         <v>1</v>
       </c>
@@ -24797,7 +24805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="135">
       <c r="A135" s="0" t="n">
         <v>1</v>
       </c>
@@ -24832,7 +24840,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="136">
       <c r="A136" s="0" t="n">
         <v>1</v>
       </c>
@@ -24867,7 +24875,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="137">
       <c r="A137" s="0" t="n">
         <v>1</v>
       </c>
@@ -24902,7 +24910,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="138">
       <c r="A138" s="0" t="n">
         <v>1</v>
       </c>
@@ -24937,7 +24945,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="139">
       <c r="A139" s="0" t="n">
         <v>1</v>
       </c>
@@ -24972,7 +24980,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="140">
       <c r="A140" s="0" t="n">
         <v>1</v>
       </c>
@@ -25007,7 +25015,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="141">
       <c r="A141" s="0" t="n">
         <v>1</v>
       </c>
@@ -25042,7 +25050,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="142">
       <c r="A142" s="0" t="n">
         <v>1</v>
       </c>
@@ -25077,7 +25085,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="143">
       <c r="A143" s="0" t="n">
         <v>1</v>
       </c>
@@ -25112,7 +25120,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="144">
       <c r="A144" s="0" t="n">
         <v>1</v>
       </c>
@@ -25147,7 +25155,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="145">
       <c r="A145" s="0" t="n">
         <v>1</v>
       </c>
@@ -25182,7 +25190,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="146">
       <c r="A146" s="0" t="n">
         <v>1</v>
       </c>
@@ -25217,7 +25225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="147">
       <c r="A147" s="0" t="n">
         <v>1</v>
       </c>
@@ -25252,7 +25260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="148">
       <c r="A148" s="0" t="n">
         <v>1</v>
       </c>
@@ -25287,7 +25295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="149">
       <c r="A149" s="0" t="n">
         <v>1</v>
       </c>
@@ -25322,7 +25330,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="150">
       <c r="A150" s="0" t="n">
         <v>1</v>
       </c>
@@ -25357,7 +25365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="151">
       <c r="A151" s="0" t="n">
         <v>1</v>
       </c>
@@ -25395,7 +25403,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -25416,20 +25424,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.25490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.49019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.58039215686275"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.67843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.01960784313726"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.82745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.27450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.51764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.6156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.05490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>12</v>
       </c>
@@ -25464,7 +25472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -25499,7 +25507,7 @@
         <v>15450</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -25534,7 +25542,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -25569,7 +25577,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
@@ -25604,7 +25612,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
@@ -25639,7 +25647,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
@@ -25674,7 +25682,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>1</v>
       </c>
@@ -25709,7 +25717,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>1</v>
       </c>
@@ -25744,7 +25752,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>1</v>
       </c>
@@ -25779,7 +25787,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>1</v>
       </c>
@@ -25814,7 +25822,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>1</v>
       </c>
@@ -25849,7 +25857,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>1</v>
       </c>
@@ -25884,7 +25892,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>1</v>
       </c>
@@ -25919,7 +25927,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>1</v>
       </c>
@@ -25954,7 +25962,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>1</v>
       </c>
@@ -25989,7 +25997,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>1</v>
       </c>
@@ -26024,7 +26032,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>1</v>
       </c>
@@ -26059,7 +26067,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
         <v>1</v>
       </c>
@@ -26094,7 +26102,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
         <v>1</v>
       </c>
@@ -26129,7 +26137,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
         <v>1</v>
       </c>
@@ -26164,7 +26172,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>1</v>
       </c>
@@ -26199,7 +26207,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
         <v>1</v>
       </c>
@@ -26234,7 +26242,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
         <v>1</v>
       </c>
@@ -26269,7 +26277,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>1</v>
       </c>
@@ -26304,7 +26312,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>1</v>
       </c>
@@ -26339,7 +26347,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>1</v>
       </c>
@@ -26374,7 +26382,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
         <v>1</v>
       </c>
@@ -26409,7 +26417,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
         <v>1</v>
       </c>
@@ -26444,7 +26452,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
         <v>1</v>
       </c>
@@ -26479,7 +26487,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
         <v>1</v>
       </c>
@@ -26514,7 +26522,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
         <v>1</v>
       </c>
@@ -26549,7 +26557,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
         <v>1</v>
       </c>
@@ -26584,7 +26592,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
@@ -26619,7 +26627,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
         <v>1</v>
       </c>
@@ -26654,7 +26662,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
         <v>1</v>
       </c>
@@ -26689,7 +26697,7 @@
         <v>950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
         <v>1</v>
       </c>
@@ -26724,7 +26732,7 @@
         <v>800</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
         <v>1</v>
       </c>
@@ -26759,7 +26767,7 @@
         <v>500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
         <v>1</v>
       </c>
@@ -26794,7 +26802,7 @@
         <v>600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
         <v>1</v>
       </c>
@@ -26829,7 +26837,7 @@
         <v>350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
         <v>1</v>
       </c>
@@ -26864,7 +26872,7 @@
         <v>350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="n">
         <v>1</v>
       </c>
@@ -26899,7 +26907,7 @@
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="n">
         <v>1</v>
       </c>
@@ -26934,7 +26942,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="n">
         <v>1</v>
       </c>
@@ -26969,7 +26977,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="n">
         <v>1</v>
       </c>
@@ -27004,7 +27012,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="n">
         <v>1</v>
       </c>
@@ -27039,7 +27047,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="0" t="n">
         <v>1</v>
       </c>
@@ -27074,7 +27082,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="n">
         <v>1</v>
       </c>
@@ -27109,7 +27117,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="0" t="n">
         <v>1</v>
       </c>
@@ -27144,7 +27152,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="0" t="n">
         <v>1</v>
       </c>
@@ -27179,7 +27187,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="0" t="n">
         <v>1</v>
       </c>
@@ -27214,7 +27222,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="0" t="n">
         <v>1</v>
       </c>
@@ -27249,7 +27257,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="0" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +27292,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="0" t="n">
         <v>1</v>
       </c>
@@ -27319,7 +27327,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="0" t="n">
         <v>1</v>
       </c>
@@ -27354,7 +27362,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="0" t="n">
         <v>1</v>
       </c>
@@ -27389,7 +27397,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="0" t="n">
         <v>1</v>
       </c>
@@ -27424,7 +27432,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="0" t="n">
         <v>1</v>
       </c>
@@ -27459,7 +27467,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="0" t="n">
         <v>1</v>
       </c>
@@ -27494,7 +27502,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="0" t="n">
         <v>1</v>
       </c>
@@ -27529,7 +27537,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="A61" s="0" t="n">
         <v>1</v>
       </c>
@@ -27564,7 +27572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="0" t="n">
         <v>1</v>
       </c>
@@ -27599,7 +27607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="0" t="n">
         <v>1</v>
       </c>
@@ -27634,7 +27642,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="0" t="n">
         <v>1</v>
       </c>
@@ -27669,7 +27677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="0" t="n">
         <v>1</v>
       </c>
@@ -27704,7 +27712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="A66" s="0" t="n">
         <v>1</v>
       </c>
@@ -27739,7 +27747,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="n">
         <v>1</v>
       </c>
@@ -27774,7 +27782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="0" t="n">
         <v>1</v>
       </c>
@@ -27809,7 +27817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="69">
       <c r="A69" s="0" t="n">
         <v>1</v>
       </c>
@@ -27844,7 +27852,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="70">
       <c r="A70" s="0" t="n">
         <v>1</v>
       </c>
@@ -27879,7 +27887,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="71">
       <c r="A71" s="0" t="n">
         <v>1</v>
       </c>
@@ -27914,7 +27922,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="72">
       <c r="A72" s="0" t="n">
         <v>1</v>
       </c>
@@ -27949,7 +27957,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="73">
       <c r="A73" s="0" t="n">
         <v>1</v>
       </c>
@@ -27984,7 +27992,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="74">
       <c r="A74" s="0" t="n">
         <v>1</v>
       </c>
@@ -28019,7 +28027,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="75">
       <c r="A75" s="0" t="n">
         <v>1</v>
       </c>
@@ -28054,7 +28062,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="76">
       <c r="A76" s="0" t="n">
         <v>1</v>
       </c>
@@ -28089,7 +28097,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="77">
       <c r="A77" s="0" t="n">
         <v>1</v>
       </c>
@@ -28124,7 +28132,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="78">
       <c r="A78" s="0" t="n">
         <v>1</v>
       </c>
@@ -28159,7 +28167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="79">
       <c r="A79" s="0" t="n">
         <v>1</v>
       </c>
@@ -28194,7 +28202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="0" t="n">
         <v>1</v>
       </c>
@@ -28229,7 +28237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="81">
       <c r="A81" s="0" t="n">
         <v>1</v>
       </c>
@@ -28264,7 +28272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="82">
       <c r="A82" s="0" t="n">
         <v>1</v>
       </c>
@@ -28299,7 +28307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="83">
       <c r="A83" s="0" t="n">
         <v>1</v>
       </c>
@@ -28334,7 +28342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="84">
       <c r="A84" s="0" t="n">
         <v>1</v>
       </c>
@@ -28369,7 +28377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="85">
       <c r="A85" s="0" t="n">
         <v>1</v>
       </c>
@@ -28404,7 +28412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="86">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="87">
       <c r="A87" s="0" t="n">
         <v>1</v>
       </c>
@@ -28474,7 +28482,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="88">
       <c r="A88" s="0" t="n">
         <v>1</v>
       </c>
@@ -28509,7 +28517,7 @@
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="89">
       <c r="A89" s="0" t="n">
         <v>1</v>
       </c>
@@ -28544,7 +28552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="90">
       <c r="A90" s="0" t="n">
         <v>1</v>
       </c>
@@ -28579,7 +28587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="91">
       <c r="A91" s="0" t="n">
         <v>1</v>
       </c>
@@ -28614,7 +28622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="92">
       <c r="A92" s="0" t="n">
         <v>1</v>
       </c>
@@ -28649,7 +28657,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="93">
       <c r="A93" s="0" t="n">
         <v>1</v>
       </c>
@@ -28684,7 +28692,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="94">
       <c r="A94" s="0" t="n">
         <v>1</v>
       </c>
@@ -28719,7 +28727,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="95">
       <c r="A95" s="0" t="n">
         <v>1</v>
       </c>
@@ -28754,7 +28762,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="96">
       <c r="A96" s="0" t="n">
         <v>1</v>
       </c>
@@ -28789,7 +28797,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="97">
       <c r="A97" s="0" t="n">
         <v>1</v>
       </c>
@@ -28824,7 +28832,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="98">
       <c r="A98" s="0" t="n">
         <v>1</v>
       </c>
@@ -28859,7 +28867,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="99">
       <c r="A99" s="0" t="n">
         <v>1</v>
       </c>
@@ -28894,7 +28902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="100">
       <c r="A100" s="0" t="n">
         <v>1</v>
       </c>
@@ -28929,7 +28937,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="101">
       <c r="A101" s="0" t="n">
         <v>1</v>
       </c>
@@ -28964,7 +28972,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="102">
       <c r="A102" s="0" t="n">
         <v>1</v>
       </c>
@@ -28999,7 +29007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="103">
       <c r="A103" s="0" t="n">
         <v>1</v>
       </c>
@@ -29034,7 +29042,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="104">
       <c r="A104" s="0" t="n">
         <v>1</v>
       </c>
@@ -29069,7 +29077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="105">
       <c r="A105" s="0" t="n">
         <v>1</v>
       </c>
@@ -29104,7 +29112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="106">
       <c r="A106" s="0" t="n">
         <v>1</v>
       </c>
@@ -29139,7 +29147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="107">
       <c r="A107" s="0" t="n">
         <v>1</v>
       </c>
@@ -29174,7 +29182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="108">
       <c r="A108" s="0" t="n">
         <v>1</v>
       </c>
@@ -29209,7 +29217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="109">
       <c r="A109" s="0" t="n">
         <v>1</v>
       </c>
@@ -29244,7 +29252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="110">
       <c r="A110" s="0" t="n">
         <v>1</v>
       </c>
@@ -29279,7 +29287,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="111">
       <c r="A111" s="0" t="n">
         <v>1</v>
       </c>
@@ -29314,7 +29322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="112">
       <c r="A112" s="0" t="n">
         <v>1</v>
       </c>
@@ -29349,7 +29357,7 @@
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="113">
       <c r="A113" s="0" t="n">
         <v>1</v>
       </c>
@@ -29384,7 +29392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="114">
       <c r="A114" s="0" t="n">
         <v>1</v>
       </c>
@@ -29419,7 +29427,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="115">
       <c r="A115" s="0" t="n">
         <v>1</v>
       </c>
@@ -29454,7 +29462,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="116">
       <c r="A116" s="0" t="n">
         <v>1</v>
       </c>
@@ -29489,7 +29497,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="117">
       <c r="A117" s="0" t="n">
         <v>1</v>
       </c>
@@ -29524,7 +29532,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="118">
       <c r="A118" s="0" t="n">
         <v>1</v>
       </c>
@@ -29559,7 +29567,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="119">
       <c r="A119" s="0" t="n">
         <v>1</v>
       </c>
@@ -29594,7 +29602,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="120">
       <c r="A120" s="0" t="n">
         <v>1</v>
       </c>
@@ -29629,7 +29637,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="121">
       <c r="A121" s="0" t="n">
         <v>1</v>
       </c>
@@ -29664,7 +29672,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="122">
       <c r="A122" s="0" t="n">
         <v>1</v>
       </c>
@@ -29699,7 +29707,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="123">
       <c r="A123" s="0" t="n">
         <v>1</v>
       </c>
@@ -29734,7 +29742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="124">
       <c r="A124" s="0" t="n">
         <v>1</v>
       </c>
@@ -29769,7 +29777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="125">
       <c r="A125" s="0" t="n">
         <v>1</v>
       </c>
@@ -29804,7 +29812,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="126">
       <c r="A126" s="0" t="n">
         <v>1</v>
       </c>
@@ -29839,7 +29847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="127">
       <c r="A127" s="0" t="n">
         <v>1</v>
       </c>
@@ -29874,7 +29882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="128">
       <c r="A128" s="0" t="n">
         <v>1</v>
       </c>
@@ -29909,7 +29917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="129">
       <c r="A129" s="0" t="n">
         <v>1</v>
       </c>
@@ -29944,7 +29952,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="130">
       <c r="A130" s="0" t="n">
         <v>1</v>
       </c>
@@ -29979,7 +29987,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="131">
       <c r="A131" s="0" t="n">
         <v>1</v>
       </c>
@@ -30014,7 +30022,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="132">
       <c r="A132" s="0" t="n">
         <v>1</v>
       </c>
@@ -30049,7 +30057,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="133">
       <c r="A133" s="0" t="n">
         <v>1</v>
       </c>
@@ -30084,7 +30092,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="134">
       <c r="A134" s="0" t="n">
         <v>1</v>
       </c>
@@ -30119,7 +30127,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="135">
       <c r="A135" s="0" t="n">
         <v>1</v>
       </c>
@@ -30154,7 +30162,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="136">
       <c r="A136" s="0" t="n">
         <v>1</v>
       </c>
@@ -30189,7 +30197,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="137">
       <c r="A137" s="0" t="n">
         <v>1</v>
       </c>
@@ -30224,7 +30232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="138">
       <c r="A138" s="0" t="n">
         <v>1</v>
       </c>
@@ -30259,7 +30267,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="139">
       <c r="A139" s="0" t="n">
         <v>1</v>
       </c>
@@ -30294,7 +30302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="140">
       <c r="A140" s="0" t="n">
         <v>1</v>
       </c>
@@ -30329,7 +30337,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="141">
       <c r="A141" s="0" t="n">
         <v>1</v>
       </c>
@@ -30364,7 +30372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="142">
       <c r="A142" s="0" t="n">
         <v>1</v>
       </c>
@@ -30399,7 +30407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="143">
       <c r="A143" s="0" t="n">
         <v>1</v>
       </c>
@@ -30434,7 +30442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="144">
       <c r="A144" s="0" t="n">
         <v>1</v>
       </c>
@@ -30469,7 +30477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="145">
       <c r="A145" s="0" t="n">
         <v>1</v>
       </c>
@@ -30504,7 +30512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="146">
       <c r="A146" s="0" t="n">
         <v>1</v>
       </c>
@@ -30539,7 +30547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="147">
       <c r="A147" s="0" t="n">
         <v>1</v>
       </c>
@@ -30574,7 +30582,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="148">
       <c r="A148" s="0" t="n">
         <v>1</v>
       </c>
@@ -30609,7 +30617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="149">
       <c r="A149" s="0" t="n">
         <v>1</v>
       </c>
@@ -30644,7 +30652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="150">
       <c r="A150" s="0" t="n">
         <v>1</v>
       </c>
@@ -30679,7 +30687,7 @@
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="151">
       <c r="A151" s="0" t="n">
         <v>1</v>
       </c>
@@ -30714,7 +30722,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="152">
       <c r="A152" s="0" t="n">
         <v>1</v>
       </c>
@@ -30749,7 +30757,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="153">
       <c r="A153" s="0" t="n">
         <v>1</v>
       </c>
@@ -30784,7 +30792,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="154">
       <c r="A154" s="0" t="n">
         <v>1</v>
       </c>
@@ -30819,7 +30827,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="155">
       <c r="A155" s="0" t="n">
         <v>1</v>
       </c>
@@ -30854,7 +30862,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="156">
       <c r="A156" s="0" t="n">
         <v>1</v>
       </c>
@@ -30889,7 +30897,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="157">
       <c r="A157" s="0" t="n">
         <v>1</v>
       </c>
@@ -30924,7 +30932,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="158">
       <c r="A158" s="0" t="n">
         <v>1</v>
       </c>
@@ -30959,7 +30967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="159">
       <c r="A159" s="0" t="n">
         <v>1</v>
       </c>
@@ -30994,7 +31002,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="160">
       <c r="A160" s="0" t="n">
         <v>1</v>
       </c>
@@ -31029,7 +31037,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="161">
       <c r="A161" s="0" t="n">
         <v>1</v>
       </c>
@@ -31064,7 +31072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="162">
       <c r="A162" s="0" t="n">
         <v>1</v>
       </c>
@@ -31099,7 +31107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="163">
       <c r="A163" s="0" t="n">
         <v>1</v>
       </c>
@@ -31134,7 +31142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="164">
       <c r="A164" s="0" t="n">
         <v>1</v>
       </c>
@@ -31169,7 +31177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="165">
       <c r="A165" s="0" t="n">
         <v>1</v>
       </c>
@@ -31204,7 +31212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="166">
       <c r="A166" s="0" t="n">
         <v>1</v>
       </c>
@@ -31239,7 +31247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="167">
       <c r="A167" s="0" t="n">
         <v>1</v>
       </c>
@@ -31274,7 +31282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="168">
       <c r="A168" s="0" t="n">
         <v>1</v>
       </c>
@@ -31309,7 +31317,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="169">
       <c r="A169" s="0" t="n">
         <v>1</v>
       </c>
@@ -31347,7 +31355,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -31367,20 +31375,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.25490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.49019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.58039215686275"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.67843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.01960784313726"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.82745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.27450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.51764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.6156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.05490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>12</v>
       </c>
@@ -31415,7 +31423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -31450,7 +31458,7 @@
         <v>13130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -31485,7 +31493,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -31520,7 +31528,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
@@ -31555,7 +31563,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
@@ -31590,7 +31598,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
@@ -31625,7 +31633,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>1</v>
       </c>
@@ -31660,7 +31668,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>1</v>
       </c>
@@ -31695,7 +31703,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>1</v>
       </c>
@@ -31730,7 +31738,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>1</v>
       </c>
@@ -31765,7 +31773,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>1</v>
       </c>
@@ -31800,7 +31808,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>1</v>
       </c>
@@ -31835,7 +31843,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>1</v>
       </c>
@@ -31870,7 +31878,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>1</v>
       </c>
@@ -31905,7 +31913,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>1</v>
       </c>
@@ -31940,7 +31948,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>1</v>
       </c>
@@ -31975,7 +31983,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>1</v>
       </c>
@@ -32010,7 +32018,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
         <v>1</v>
       </c>
@@ -32045,7 +32053,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
         <v>1</v>
       </c>
@@ -32080,7 +32088,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
         <v>1</v>
       </c>
@@ -32115,7 +32123,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>1</v>
       </c>
@@ -32150,7 +32158,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
         <v>1</v>
       </c>
@@ -32185,7 +32193,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
         <v>1</v>
       </c>
@@ -32220,7 +32228,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>1</v>
       </c>
@@ -32255,7 +32263,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>1</v>
       </c>
@@ -32290,7 +32298,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>1</v>
       </c>
@@ -32325,7 +32333,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
         <v>1</v>
       </c>
@@ -32360,7 +32368,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
         <v>1</v>
       </c>
@@ -32395,7 +32403,7 @@
         <v>930</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
         <v>1</v>
       </c>
@@ -32430,7 +32438,7 @@
         <v>970</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
         <v>1</v>
       </c>
@@ -32465,7 +32473,7 @@
         <v>650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
         <v>1</v>
       </c>
@@ -32500,7 +32508,7 @@
         <v>660</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
         <v>1</v>
       </c>
@@ -32535,7 +32543,7 @@
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
@@ -32570,7 +32578,7 @@
         <v>510</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
         <v>1</v>
       </c>
@@ -32605,7 +32613,7 @@
         <v>290</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
         <v>1</v>
       </c>
@@ -32640,7 +32648,7 @@
         <v>430</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
         <v>1</v>
       </c>
@@ -32675,7 +32683,7 @@
         <v>370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
         <v>1</v>
       </c>
@@ -32710,7 +32718,7 @@
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
         <v>1</v>
       </c>
@@ -32745,7 +32753,7 @@
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
         <v>1</v>
       </c>
@@ -32780,7 +32788,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
         <v>1</v>
       </c>
@@ -32815,7 +32823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="n">
         <v>1</v>
       </c>
@@ -32850,7 +32858,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="n">
         <v>1</v>
       </c>
@@ -32885,7 +32893,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="n">
         <v>1</v>
       </c>
@@ -32920,7 +32928,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="n">
         <v>1</v>
       </c>
@@ -32955,7 +32963,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="n">
         <v>1</v>
       </c>
@@ -32990,7 +32998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="0" t="n">
         <v>1</v>
       </c>
@@ -33025,7 +33033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="n">
         <v>1</v>
       </c>
@@ -33060,7 +33068,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="0" t="n">
         <v>1</v>
       </c>
@@ -33095,7 +33103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="0" t="n">
         <v>1</v>
       </c>
@@ -33130,7 +33138,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="0" t="n">
         <v>1</v>
       </c>
@@ -33165,7 +33173,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="0" t="n">
         <v>1</v>
       </c>
@@ -33200,7 +33208,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="0" t="n">
         <v>1</v>
       </c>
@@ -33235,7 +33243,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="0" t="n">
         <v>1</v>
       </c>
@@ -33270,7 +33278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="0" t="n">
         <v>1</v>
       </c>
@@ -33305,7 +33313,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="0" t="n">
         <v>1</v>
       </c>
@@ -33340,7 +33348,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="0" t="n">
         <v>1</v>
       </c>
@@ -33375,7 +33383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="0" t="n">
         <v>1</v>
       </c>
@@ -33410,7 +33418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="0" t="n">
         <v>1</v>
       </c>
@@ -33445,7 +33453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="0" t="n">
         <v>1</v>
       </c>
@@ -33480,7 +33488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="A61" s="0" t="n">
         <v>1</v>
       </c>
@@ -33515,7 +33523,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="0" t="n">
         <v>1</v>
       </c>
@@ -33550,7 +33558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="0" t="n">
         <v>1</v>
       </c>
@@ -33585,7 +33593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="0" t="n">
         <v>1</v>
       </c>
@@ -33620,7 +33628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="0" t="n">
         <v>1</v>
       </c>
@@ -33655,7 +33663,7 @@
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="A66" s="0" t="n">
         <v>1</v>
       </c>
@@ -33690,7 +33698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="n">
         <v>1</v>
       </c>
@@ -33725,7 +33733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="0" t="n">
         <v>1</v>
       </c>
@@ -33760,7 +33768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="69">
       <c r="A69" s="0" t="n">
         <v>1</v>
       </c>
@@ -33795,7 +33803,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="70">
       <c r="A70" s="0" t="n">
         <v>1</v>
       </c>
@@ -33830,7 +33838,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="71">
       <c r="A71" s="0" t="n">
         <v>1</v>
       </c>
@@ -33865,7 +33873,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="72">
       <c r="A72" s="0" t="n">
         <v>1</v>
       </c>
@@ -33900,7 +33908,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="73">
       <c r="A73" s="0" t="n">
         <v>1</v>
       </c>
@@ -33935,7 +33943,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="74">
       <c r="A74" s="0" t="n">
         <v>1</v>
       </c>
@@ -33970,7 +33978,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="75">
       <c r="A75" s="0" t="n">
         <v>1</v>
       </c>
@@ -34005,7 +34013,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="76">
       <c r="A76" s="0" t="n">
         <v>1</v>
       </c>
@@ -34040,7 +34048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="77">
       <c r="A77" s="0" t="n">
         <v>1</v>
       </c>
@@ -34075,7 +34083,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="78">
       <c r="A78" s="0" t="n">
         <v>1</v>
       </c>
@@ -34110,7 +34118,7 @@
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="79">
       <c r="A79" s="0" t="n">
         <v>1</v>
       </c>
@@ -34145,7 +34153,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="0" t="n">
         <v>1</v>
       </c>
@@ -34180,7 +34188,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="81">
       <c r="A81" s="0" t="n">
         <v>1</v>
       </c>
@@ -34215,7 +34223,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="82">
       <c r="A82" s="0" t="n">
         <v>1</v>
       </c>
@@ -34250,7 +34258,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="83">
       <c r="A83" s="0" t="n">
         <v>1</v>
       </c>
@@ -34285,7 +34293,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="84">
       <c r="A84" s="0" t="n">
         <v>1</v>
       </c>
@@ -34320,7 +34328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="85">
       <c r="A85" s="0" t="n">
         <v>1</v>
       </c>
@@ -34355,7 +34363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="86">
       <c r="A86" s="0" t="n">
         <v>1</v>
       </c>
@@ -34390,7 +34398,7 @@
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="87">
       <c r="A87" s="0" t="n">
         <v>1</v>
       </c>
@@ -34425,7 +34433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="88">
       <c r="A88" s="0" t="n">
         <v>1</v>
       </c>
@@ -34460,7 +34468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="89">
       <c r="A89" s="0" t="n">
         <v>1</v>
       </c>
@@ -34495,7 +34503,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="90">
       <c r="A90" s="0" t="n">
         <v>1</v>
       </c>
@@ -34530,7 +34538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="91">
       <c r="A91" s="0" t="n">
         <v>1</v>
       </c>
@@ -34565,7 +34573,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="92">
       <c r="A92" s="0" t="n">
         <v>1</v>
       </c>
@@ -34600,7 +34608,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="93">
       <c r="A93" s="0" t="n">
         <v>1</v>
       </c>
@@ -34635,7 +34643,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="94">
       <c r="A94" s="0" t="n">
         <v>1</v>
       </c>
@@ -34670,7 +34678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="95">
       <c r="A95" s="0" t="n">
         <v>1</v>
       </c>
@@ -34705,7 +34713,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="96">
       <c r="A96" s="0" t="n">
         <v>1</v>
       </c>
@@ -34740,7 +34748,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="97">
       <c r="A97" s="0" t="n">
         <v>1</v>
       </c>
@@ -34775,7 +34783,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="98">
       <c r="A98" s="0" t="n">
         <v>1</v>
       </c>
@@ -34810,7 +34818,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="99">
       <c r="A99" s="0" t="n">
         <v>1</v>
       </c>
@@ -34845,7 +34853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="100">
       <c r="A100" s="0" t="n">
         <v>1</v>
       </c>
@@ -34880,7 +34888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="101">
       <c r="A101" s="0" t="n">
         <v>1</v>
       </c>
@@ -34915,7 +34923,7 @@
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="102">
       <c r="A102" s="0" t="n">
         <v>1</v>
       </c>
@@ -34950,7 +34958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="103">
       <c r="A103" s="0" t="n">
         <v>1</v>
       </c>
@@ -34985,7 +34993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="104">
       <c r="A104" s="0" t="n">
         <v>1</v>
       </c>
@@ -35020,7 +35028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="105">
       <c r="A105" s="0" t="n">
         <v>1</v>
       </c>
@@ -35055,7 +35063,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="106">
       <c r="A106" s="0" t="n">
         <v>1</v>
       </c>
@@ -35090,7 +35098,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="107">
       <c r="A107" s="0" t="n">
         <v>1</v>
       </c>
@@ -35125,7 +35133,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="108">
       <c r="A108" s="0" t="n">
         <v>1</v>
       </c>
@@ -35160,7 +35168,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="109">
       <c r="A109" s="0" t="n">
         <v>1</v>
       </c>
@@ -35195,7 +35203,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="110">
       <c r="A110" s="0" t="n">
         <v>1</v>
       </c>
@@ -35230,7 +35238,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="111">
       <c r="A111" s="0" t="n">
         <v>1</v>
       </c>
@@ -35265,7 +35273,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="112">
       <c r="A112" s="0" t="n">
         <v>1</v>
       </c>
@@ -35300,7 +35308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="113">
       <c r="A113" s="0" t="n">
         <v>1</v>
       </c>
@@ -35335,7 +35343,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="114">
       <c r="A114" s="0" t="n">
         <v>1</v>
       </c>
@@ -35370,7 +35378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="115">
       <c r="A115" s="0" t="n">
         <v>1</v>
       </c>
@@ -35405,7 +35413,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="116">
       <c r="A116" s="0" t="n">
         <v>1</v>
       </c>
@@ -35440,7 +35448,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="117">
       <c r="A117" s="0" t="n">
         <v>1</v>
       </c>
@@ -35475,7 +35483,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="118">
       <c r="A118" s="0" t="n">
         <v>1</v>
       </c>
@@ -35510,7 +35518,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="119">
       <c r="A119" s="0" t="n">
         <v>1</v>
       </c>
@@ -35545,7 +35553,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="120">
       <c r="A120" s="0" t="n">
         <v>1</v>
       </c>
@@ -35580,7 +35588,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="121">
       <c r="A121" s="0" t="n">
         <v>1</v>
       </c>
@@ -35615,7 +35623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="122">
       <c r="A122" s="0" t="n">
         <v>1</v>
       </c>
@@ -35650,7 +35658,7 @@
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="123">
       <c r="A123" s="0" t="n">
         <v>1</v>
       </c>
@@ -35685,7 +35693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="124">
       <c r="A124" s="0" t="n">
         <v>1</v>
       </c>
@@ -35720,7 +35728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="125">
       <c r="A125" s="0" t="n">
         <v>1</v>
       </c>
@@ -35755,7 +35763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="126">
       <c r="A126" s="0" t="n">
         <v>1</v>
       </c>
@@ -35790,7 +35798,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="127">
       <c r="A127" s="0" t="n">
         <v>1</v>
       </c>
@@ -35825,7 +35833,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="128">
       <c r="A128" s="0" t="n">
         <v>1</v>
       </c>
@@ -35860,7 +35868,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="129">
       <c r="A129" s="0" t="n">
         <v>1</v>
       </c>
@@ -35895,7 +35903,7 @@
         <v>-220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="130">
       <c r="A130" s="0" t="n">
         <v>1</v>
       </c>
@@ -35930,7 +35938,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="131">
       <c r="A131" s="0" t="n">
         <v>1</v>
       </c>
@@ -35965,7 +35973,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="132">
       <c r="A132" s="0" t="n">
         <v>1</v>
       </c>
@@ -36000,7 +36008,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="133">
       <c r="A133" s="0" t="n">
         <v>1</v>
       </c>
@@ -36035,7 +36043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="134">
       <c r="A134" s="0" t="n">
         <v>1</v>
       </c>
@@ -36070,7 +36078,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="135">
       <c r="A135" s="0" t="n">
         <v>1</v>
       </c>
@@ -36105,7 +36113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="136">
       <c r="A136" s="0" t="n">
         <v>1</v>
       </c>
@@ -36140,7 +36148,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="137">
       <c r="A137" s="0" t="n">
         <v>1</v>
       </c>
@@ -36175,7 +36183,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="138">
       <c r="A138" s="0" t="n">
         <v>1</v>
       </c>
@@ -36210,7 +36218,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="139">
       <c r="A139" s="0" t="n">
         <v>1</v>
       </c>
@@ -36245,7 +36253,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="140">
       <c r="A140" s="0" t="n">
         <v>1</v>
       </c>
@@ -36280,7 +36288,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="141">
       <c r="A141" s="0" t="n">
         <v>1</v>
       </c>
@@ -36315,7 +36323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="142">
       <c r="A142" s="0" t="n">
         <v>1</v>
       </c>
@@ -36350,7 +36358,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="143">
       <c r="A143" s="0" t="n">
         <v>1</v>
       </c>
@@ -36385,7 +36393,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="144">
       <c r="A144" s="0" t="n">
         <v>1</v>
       </c>
@@ -36420,7 +36428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="145">
       <c r="A145" s="0" t="n">
         <v>1</v>
       </c>
@@ -36455,7 +36463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="146">
       <c r="A146" s="0" t="n">
         <v>1</v>
       </c>
@@ -36490,7 +36498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="147">
       <c r="A147" s="0" t="n">
         <v>1</v>
       </c>
@@ -36525,7 +36533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="148">
       <c r="A148" s="0" t="n">
         <v>1</v>
       </c>
@@ -36560,7 +36568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="149">
       <c r="A149" s="0" t="n">
         <v>1</v>
       </c>
@@ -36595,7 +36603,7 @@
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="150">
       <c r="A150" s="0" t="n">
         <v>1</v>
       </c>
@@ -36630,7 +36638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="151">
       <c r="A151" s="0" t="n">
         <v>1</v>
       </c>
@@ -36665,7 +36673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="152">
       <c r="A152" s="0" t="n">
         <v>1</v>
       </c>
@@ -36700,7 +36708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="153">
       <c r="A153" s="0" t="n">
         <v>1</v>
       </c>
@@ -36735,7 +36743,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="154">
       <c r="A154" s="0" t="n">
         <v>1</v>
       </c>
@@ -36770,7 +36778,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="155">
       <c r="A155" s="0" t="n">
         <v>1</v>
       </c>
@@ -36805,7 +36813,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="156">
       <c r="A156" s="0" t="n">
         <v>1</v>
       </c>
@@ -36840,7 +36848,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="157">
       <c r="A157" s="0" t="n">
         <v>1</v>
       </c>
@@ -36875,7 +36883,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="158">
       <c r="A158" s="0" t="n">
         <v>1</v>
       </c>
@@ -36910,7 +36918,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="159">
       <c r="A159" s="0" t="n">
         <v>1</v>
       </c>
@@ -36945,7 +36953,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="160">
       <c r="A160" s="0" t="n">
         <v>1</v>
       </c>
@@ -36980,7 +36988,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="161">
       <c r="A161" s="0" t="n">
         <v>1</v>
       </c>
@@ -37015,7 +37023,7 @@
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="162">
       <c r="A162" s="0" t="n">
         <v>1</v>
       </c>
@@ -37050,7 +37058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="163">
       <c r="A163" s="0" t="n">
         <v>1</v>
       </c>
@@ -37085,7 +37093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="164">
       <c r="A164" s="0" t="n">
         <v>1</v>
       </c>
@@ -37120,7 +37128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="165">
       <c r="A165" s="0" t="n">
         <v>1</v>
       </c>
@@ -37155,7 +37163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="166">
       <c r="A166" s="0" t="n">
         <v>1</v>
       </c>
@@ -37190,7 +37198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="167">
       <c r="A167" s="0" t="n">
         <v>1</v>
       </c>
@@ -37225,7 +37233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="168">
       <c r="A168" s="0" t="n">
         <v>1</v>
       </c>
@@ -37263,7 +37271,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -37284,12 +37292,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
